--- a/experimental_data/GEC/Ducry1979.xlsx
+++ b/experimental_data/GEC/Ducry1979.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>Ducry1979 – Liver function in physically trained subjects</t>
   </si>
@@ -44,22 +44,25 @@
     <t>VO2max [ml/min/kg]</t>
   </si>
   <si>
-    <t>GECmgbw [mg/min/kg]</t>
+    <t>GECmgkg [mg/min/kg]</t>
+  </si>
+  <si>
+    <t>KICG [%min]</t>
+  </si>
+  <si>
+    <t>Aminopyrine (kp) [%/hr]</t>
+  </si>
+  <si>
+    <t>Aminopyrine (Cltot) [ml/min/kg]</t>
+  </si>
+  <si>
+    <t>Aminopyrine (kb) [%/hr]</t>
   </si>
   <si>
     <t>GEC [mmole/min]</t>
   </si>
   <si>
-    <t>KICG [%min]</t>
-  </si>
-  <si>
-    <t>Aminopyrine (kp) [%/hr]</t>
-  </si>
-  <si>
-    <t>Aminopyrine (Cltot) [ml/min/kg]</t>
-  </si>
-  <si>
-    <t>Aminopyrine (kb) [%/hr]</t>
+    <t>GECkg [mmole/min/kg]</t>
   </si>
   <si>
     <t>age</t>
@@ -68,28 +71,31 @@
     <t>height</t>
   </si>
   <si>
-    <t>weight</t>
+    <t>bodyweight</t>
   </si>
   <si>
     <t>VO2max</t>
   </si>
   <si>
-    <t>GECmgbw</t>
+    <t>GECmgkg</t>
+  </si>
+  <si>
+    <t>KICG</t>
+  </si>
+  <si>
+    <t>kp</t>
+  </si>
+  <si>
+    <t>Cltot</t>
+  </si>
+  <si>
+    <t>kb</t>
   </si>
   <si>
     <t>GEC</t>
   </si>
   <si>
-    <t>KICG</t>
-  </si>
-  <si>
-    <t>kp</t>
-  </si>
-  <si>
-    <t>Cltot</t>
-  </si>
-  <si>
-    <t>kb</t>
+    <t>GECkg</t>
   </si>
   <si>
     <t>H.R.</t>
@@ -156,6 +162,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,6 +184,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -245,7 +253,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -272,6 +280,10 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
@@ -359,15 +371,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>223560</xdr:colOff>
+      <xdr:colOff>250560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>667800</xdr:colOff>
+      <xdr:colOff>694440</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -382,8 +394,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="223560" y="3367800"/>
-          <a:ext cx="6202800" cy="3630600"/>
+          <a:off x="250560" y="3358800"/>
+          <a:ext cx="6202440" cy="3630240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,10 +415,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4:M18"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -469,8 +481,11 @@
       <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4" s="5">
+      <c r="N3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -481,621 +496,679 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="E5" s="7" t="n">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>78</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I5" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="J5" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="L5" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>170</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I5" s="8" t="n">
+      <c r="M5" s="9" t="n">
         <f aca="false">H5/180*F5</f>
         <v>2.77333333333333</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
+        <f aca="false">H5/180</f>
+        <v>0.0433333333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="7" t="n">
         <v>172</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="7" t="n">
         <v>73.5</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="7" t="n">
         <v>6.9</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="M6" s="9" t="n">
         <f aca="false">H6/180*F6</f>
         <v>2.3</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="N6" s="0" t="n">
+        <f aca="false">H6/180</f>
+        <v>0.0383333333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>177</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>68</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>177</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I7" s="8" t="n">
+      <c r="K7" s="7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="M7" s="9" t="n">
         <f aca="false">H7/180*F7</f>
         <v>2.34222222222222</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>18</v>
+      <c r="N7" s="0" t="n">
+        <f aca="false">H7/180</f>
+        <v>0.0344444444444444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="7" t="n">
         <v>175</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="7" t="n">
         <v>67</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="7" t="n">
         <v>65.8</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="M8" s="9" t="n">
         <f aca="false">H8/180*F8</f>
         <v>2.23333333333333</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>14</v>
+      <c r="N8" s="0" t="n">
+        <f aca="false">H8/180</f>
+        <v>0.0333333333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="7" t="n">
         <v>183</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="7" t="n">
         <v>73</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="7" t="n">
         <v>65.8</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="7" t="n">
         <v>7.4</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="M9" s="9" t="n">
         <f aca="false">H9/180*F9</f>
         <v>3.00111111111111</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="N9" s="0" t="n">
+        <f aca="false">H9/180</f>
+        <v>0.0411111111111111</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>179</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>179</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="8" t="n">
+      <c r="J10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="M10" s="9" t="n">
         <f aca="false">H10/180*F10</f>
         <v>3.55555555555556</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>19</v>
+      <c r="N10" s="0" t="n">
+        <f aca="false">H10/180</f>
+        <v>0.0555555555555556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="7" t="n">
         <v>180</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="7" t="n">
         <v>68</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="7" t="n">
         <v>63.7</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="7" t="n">
         <v>6.4</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="M11" s="9" t="n">
         <f aca="false">H11/180*F11</f>
         <v>2.41777777777778</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>27</v>
+      <c r="N11" s="0" t="n">
+        <f aca="false">H11/180</f>
+        <v>0.0355555555555556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="A12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="7" t="n">
         <v>174</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="7" t="n">
         <v>56.6</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="H12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="K12" s="7" t="n">
         <v>6.1</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="L12" s="7" t="n">
         <v>21</v>
       </c>
+      <c r="M12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="J13" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>168</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>51.4</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="I13" s="8" t="n">
+      <c r="K13" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" s="9" t="n">
         <f aca="false">H13/180*F13</f>
         <v>2.7</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
+        <f aca="false">H13/180</f>
+        <v>0.045</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L14" s="7" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>185</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I14" s="8" t="n">
+      <c r="M14" s="9" t="n">
         <f aca="false">H14/180*F14</f>
         <v>2.37222222222222</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="N14" s="0" t="n">
+        <f aca="false">H14/180</f>
+        <v>0.0338888888888889</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>186</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>72</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I15" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I15" s="8" t="n">
+      <c r="J15" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="M15" s="9" t="n">
         <f aca="false">H15/180*F15</f>
         <v>3.12</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
+        <f aca="false">H15/180</f>
+        <v>0.0433333333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>182</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I16" s="7" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I16" s="8" t="n">
+      <c r="J16" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="M16" s="9" t="n">
         <f aca="false">H16/180*F16</f>
         <v>2.52777777777778</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="N16" s="0" t="n">
+        <f aca="false">H16/180</f>
+        <v>0.0361111111111111</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>174</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>59</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I17" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="J17" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L17" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>174</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I17" s="8" t="n">
+      <c r="M17" s="9" t="n">
         <f aca="false">H17/180*F17</f>
         <v>2.16333333333333</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="N17" s="0" t="n">
+        <f aca="false">H17/180</f>
+        <v>0.0366666666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>191</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>88</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I18" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>191</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I18" s="8" t="n">
+      <c r="J18" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="M18" s="9" t="n">
         <f aca="false">H18/180*F18</f>
         <v>3.71555555555556</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>15</v>
+      <c r="N18" s="0" t="n">
+        <f aca="false">H18/180</f>
+        <v>0.0422222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/experimental_data/GEC/Ducry1979.xlsx
+++ b/experimental_data/GEC/Ducry1979.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="193" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="193" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Ducry1979" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
     <t>subject</t>
   </si>
   <si>
-    <t>state</t>
+    <t>status</t>
   </si>
   <si>
     <t>trained</t>
@@ -116,7 +116,7 @@
     <t>H.R.</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>G.F.</t>
@@ -169,8 +169,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.00" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -235,7 +235,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -244,79 +244,79 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -382,23 +382,23 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>277560</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>582480</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Graphics 1"/>
+        <xdr:cNvPr id="0" name="Graphics 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -409,8 +409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="277560" y="3349800"/>
-          <a:ext cx="6202080" cy="3629880"/>
+          <a:off x="304560" y="3340800"/>
+          <a:ext cx="6201720" cy="3629520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -432,8 +432,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6:B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -442,7 +442,7 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,13 +452,13 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="3" s="5">
+    <row r="3" s="5" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -508,7 +508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -558,7 +558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>30</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0.0433333333333333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>30</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0.0383333333333333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>30</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0.0344444444444444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>30</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0.0333333333333333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>30</v>
       </c>
@@ -818,7 +818,7 @@
         <v>0.0411111111111111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>30</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0.0555555555555556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>30</v>
       </c>
@@ -922,7 +922,7 @@
         <v>0.0355555555555556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>30</v>
       </c>
@@ -972,7 +972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>30</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0.045</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>30</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.0338888888888889</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>30</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0.0433333333333333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>30</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0.0361111111111111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0.0366666666666667</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>30</v>
       </c>
@@ -1287,7 +1287,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
